--- a/shared/ojb-resources-common/src/main/resources/ssp/Warrant_Modification_Request/artifacts/service_model/information_model/IEPD/documentation/Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Warrant_Modification_Request/artifacts/service_model/information_model/IEPD/documentation/Mapping.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-27080" yWindow="6780" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="5940" yWindow="680" windowWidth="25600" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Warrant Issued Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Warrant Accepted Report" sheetId="2" r:id="rId2"/>
-    <sheet name="Warrant Rejected Report" sheetId="3" r:id="rId3"/>
+    <sheet name="Warrant Modification Request " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="183">
   <si>
     <t>CLASS</t>
   </si>
@@ -44,9 +42,6 @@
     <t>SSN</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Sample Data</t>
   </si>
   <si>
@@ -65,9 +60,6 @@
     <t>Person Name</t>
   </si>
   <si>
-    <t>Person Alternate Name</t>
-  </si>
-  <si>
     <t>PERSON</t>
   </si>
   <si>
@@ -101,18 +93,6 @@
     <t>Full Name</t>
   </si>
   <si>
-    <t>VEHICLE</t>
-  </si>
-  <si>
-    <t>License Plate Number</t>
-  </si>
-  <si>
-    <t>VIN</t>
-  </si>
-  <si>
-    <t>Vehicle Year</t>
-  </si>
-  <si>
     <t>Address Full Text</t>
   </si>
   <si>
@@ -125,12 +105,6 @@
     <t>Address Category Text</t>
   </si>
   <si>
-    <t>Address County Name</t>
-  </si>
-  <si>
-    <t>Address County Code</t>
-  </si>
-  <si>
     <t>Street Number Text</t>
   </si>
   <si>
@@ -146,12 +120,6 @@
     <t>WARRANT</t>
   </si>
   <si>
-    <t>Warrant Expiration Date</t>
-  </si>
-  <si>
-    <t>The expiration Date of the Warrant record.</t>
-  </si>
-  <si>
     <t>Court Docket ID</t>
   </si>
   <si>
@@ -170,15 +138,9 @@
     <t>Law Enforcement ORI</t>
   </si>
   <si>
-    <t>Complaint Number</t>
-  </si>
-  <si>
     <t>Offense Code Text</t>
   </si>
   <si>
-    <t>A code assigned to a warrant record by prosecution</t>
-  </si>
-  <si>
     <t>Original Offense Code Text</t>
   </si>
   <si>
@@ -191,48 +153,24 @@
     <t>CONTACT LOCATION (Subject)</t>
   </si>
   <si>
-    <t>Additional Vehicle Information Text</t>
-  </si>
-  <si>
     <t>Person Record Number</t>
   </si>
   <si>
-    <t>Vehicle Record Number</t>
-  </si>
-  <si>
     <t>A system record number for a person.</t>
   </si>
   <si>
     <t>A code representing the extent to which a warrant will be broadcast.</t>
   </si>
   <si>
-    <t>Warrant Accepted Report</t>
-  </si>
-  <si>
-    <t>Warrant Issued Report</t>
-  </si>
-  <si>
-    <t>ORI of the warrant issuing agency</t>
-  </si>
-  <si>
     <t>Caution Code Text</t>
   </si>
   <si>
     <t>ID of the person who entered the warrant</t>
   </si>
   <si>
-    <t>The system record number of a person</t>
-  </si>
-  <si>
-    <t>Vehicle Record Expiration Date</t>
-  </si>
-  <si>
     <t>Warrant Appearance Bail Amount</t>
   </si>
   <si>
-    <t>Subject Corrections ID</t>
-  </si>
-  <si>
     <t>Person Additional Information Text</t>
   </si>
   <si>
@@ -245,15 +183,6 @@
     <t>A miscellaneous unique identification assigned to a person record.</t>
   </si>
   <si>
-    <t>A unique identification assigned to a vehicle record.</t>
-  </si>
-  <si>
-    <t>The expiration date of a vehicle record.</t>
-  </si>
-  <si>
-    <t>Additional information about a vehicle.</t>
-  </si>
-  <si>
     <t>Extradition Indicator</t>
   </si>
   <si>
@@ -287,9 +216,6 @@
     <t>A code representing the radius (in miles) an issuing jurisdiction will go to pickup an individual when apprehended.</t>
   </si>
   <si>
-    <t>License Plate Category Text</t>
-  </si>
-  <si>
     <t>A code representing a charge</t>
   </si>
   <si>
@@ -326,18 +252,6 @@
     <t>Peter J Jones Jr</t>
   </si>
   <si>
-    <t>Pete</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Pete K Johnson Jr</t>
-  </si>
-  <si>
     <t>AO</t>
   </si>
   <si>
@@ -389,33 +303,6 @@
     <t>G45</t>
   </si>
   <si>
-    <t>BGE</t>
-  </si>
-  <si>
-    <t>BRO</t>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>VIN3458745679777</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>Excessive Rust</t>
-  </si>
-  <si>
-    <t>V345678</t>
-  </si>
-  <si>
-    <t>LP4365-0234</t>
-  </si>
-  <si>
-    <t>LP-category</t>
-  </si>
-  <si>
     <t>Full Address</t>
   </si>
   <si>
@@ -431,21 +318,12 @@
     <t>Michigan</t>
   </si>
   <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>PN3929593</t>
-  </si>
-  <si>
     <t>ID45656768</t>
   </si>
   <si>
     <t>MC23</t>
   </si>
   <si>
-    <t>PW56</t>
-  </si>
-  <si>
     <t>B26</t>
   </si>
   <si>
@@ -455,30 +333,9 @@
     <t>SAME AS ELEMENT IN PERSON CLASS</t>
   </si>
   <si>
-    <t>Vehicle Primary Color Code Text</t>
-  </si>
-  <si>
-    <t>Vehicle Secondary Color Code Text</t>
-  </si>
-  <si>
-    <t>Vehicle Make Code Text</t>
-  </si>
-  <si>
-    <t>Vehicle Model Code Text</t>
-  </si>
-  <si>
-    <t>Vehicle Style Code Text</t>
-  </si>
-  <si>
-    <t>Race Code Text</t>
-  </si>
-  <si>
     <t>Eye Color Code Text</t>
   </si>
   <si>
-    <t>Sex Code Text</t>
-  </si>
-  <si>
     <t>Skin Tone Code Text</t>
   </si>
   <si>
@@ -491,219 +348,6 @@
     <t>Physical Feature Category Code Text</t>
   </si>
   <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Vehicle[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonConveyanceAssociation/nc:Conveyance/@structures:ref]/nc:ItemModelYearDate</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Vehicle[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonConveyanceAssociation/nc:Conveyance/@structures:ref]/nc:VehicleIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Vehicle[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonConveyanceAssociation/nc:Conveyance/@structures:ref]/wir-ext:VehicleRecordExpirationDate/nc:Date</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Vehicle[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonConveyanceAssociation/nc:Conveyance/@structures:ref]/wir-ext:VehicleAdditionalInformationText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Vehicle[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonConveyanceAssociation/nc:Conveyance/@structures:ref]/wir-ext:VehicleRecordIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonName/nc:PersonGivenName</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonName/nc:PersonMiddleName</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonName/nc:PersonSurName</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonName/nc:PersonNameSuffixText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonName/nc:PersonFullName</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonBirthDate/nc:Date</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonEyeColorText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/j:PersonAugmentation/j:PersonFBIIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonSkinToneText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonHairColorText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonHeightMeasure/nc:MeasureValueText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonHeightMeasure/nc:MeasureUnitText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonWeightMeasure/nc:MeasureValueText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonWeightMeasure/nc:MeasureUnitText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonPhysicalFeature/intel:PhysicalFeatureCategoryCodeText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonBirthLocation/nc:LocationCategoryText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonSSNIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/wir-ext:PersonMiscellaneousRecordIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/wir-ext:PersonRecordIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/wir-ext:PersonAdditionalInformationText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/wir-ext:PersonCautionCodeText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationJurisdiction/j:JurisdictionNCICLISCode</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:ConveyanceRegistration[@structures:id=/wir-doc:WarrantIssuedReport/j:ConveyanceRegistrationAssociation/j:ItemRegistration/@structures:ref]/j:ConveyanceRegistrationPlateIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:ConveyanceRegistration[@structures:id=/wir-doc:WarrantIssuedReport/j:ConveyanceRegistrationAssociation/j:ItemRegistration/@structures:ref]/j:ConveyanceRegistrationPlateCategoryText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Identity[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonAliasIdentityAssociation/nc:Identity/@structures:ref]/nc:IdentityPersonRepresentation/nc:PersonName/nc:PersonGivenName</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Identity[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonAliasIdentityAssociation/nc:Identity/@structures:ref]/nc:IdentityPersonRepresentation/nc:PersonName/nc:PersonMiddleName</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Identity[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonAliasIdentityAssociation/nc:Identity/@structures:ref]/nc:IdentityPersonRepresentation/nc:PersonName/nc:PersonSurName</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Identity[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonAliasIdentityAssociation/nc:Identity/@structures:ref]/nc:IdentityPersonRepresentation/nc:PersonName/nc:PersonNameSuffixText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Identity[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonAliasIdentityAssociation/nc:Identity/@structures:ref]/nc:IdentityPersonRepresentation/nc:PersonName/nc:PersonFullName</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Case/nc:CaseDocketID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Case/nc:ActivityIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Case/j:CaseAugmentation/j:CaseCharge/wir-ext:OffenseCodeText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Case/j:CaseAugmentation/j:CaseCharge/wir-ext:ChargeCodeText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Case/j:CaseAugmentation/j:CaseCharge/wir-ext:OriginalOffenseCodeText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wir-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/nc:AddressFullText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wir-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/wir-ext:AddressCategoryText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wir-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/nc:LocationStreet/nc:StreetNumberText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wir-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/nc:LocationCityName</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wir-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/nc:LocationStateName</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wir-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/nc:LocationCountyName</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wir-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/nc:LocationCountyCode</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wir-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/nc:LocationPostalCode</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wir-ext:WarrantAugmentation/nc:ExpirationDate/nc:Date</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/j:CourtOrderIssuingDate/nc:Date</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/j:WarrantAppearanceBail/j:BailSetAmount/nc:Amount</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/j:CourtOrderIssuingCourt/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/j:CourtOrderDesignatedSubject/j:SubjectCorrectionsIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wir-ext:WarrantAugmentation/wir-ext:ExtraditionIndicator</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wir-ext:WarrantAugmentation/wir-ext:ExtraditionLimitCodeText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/j:CourtOrderEnforcementAgency/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/j:CourtOrderRequestEntity/nc:EntityPerson/wir-ext:PersonEmployeeIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wir-ext:WarrantAugmentation/wir-ext:PersonRecordIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wir-ext:WarrantAugmentation/wir-ext:SubjectPickupRadiusCodeText</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wir-ext:WarrantAugmentation/wir-ext:WarrantBroadcastCodeText</t>
-  </si>
-  <si>
-    <t>war-doc:WarrantAcceptedReport/nc:Person[@structures:id=/war-doc:WarrantAcceptedReport/j:Warrant/j:CourtOrderDesignatedSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonGivenName</t>
-  </si>
-  <si>
-    <t>war-doc:WarrantAcceptedReport/nc:Person[@structures:id=/war-doc:WarrantAcceptedReport/j:Warrant/j:CourtOrderDesignatedSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonMiddleName</t>
-  </si>
-  <si>
-    <t>war-doc:WarrantAcceptedReport/nc:Person[@structures:id=/war-doc:WarrantAcceptedReport/j:Warrant/j:CourtOrderDesignatedSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonSurName</t>
-  </si>
-  <si>
-    <t>war-doc:WarrantAcceptedReport/nc:Person[@structures:id=/war-doc:WarrantAcceptedReport/j:Warrant/j:CourtOrderDesignatedSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonNameSuffixText</t>
-  </si>
-  <si>
-    <t>war-doc:WarrantAcceptedReport/nc:Person[@structures:id=/war-doc:WarrantAcceptedReport/j:Warrant/j:CourtOrderDesignatedSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonBirthDate/nc:Date</t>
-  </si>
-  <si>
-    <t>war-doc:WarrantAcceptedReport/nc:Person[@structures:id=/war-doc:WarrantAcceptedReport/j:Warrant/j:CourtOrderDesignatedSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonRaceText</t>
-  </si>
-  <si>
-    <t>war-doc:WarrantAcceptedReport/nc:Person[@structures:id=/war-doc:WarrantAcceptedReport/j:Warrant/j:CourtOrderDesignatedSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonSexText</t>
-  </si>
-  <si>
-    <t>war-doc:WarrantAcceptedReport/nc:Person[@structures:id=/war-doc:WarrantAcceptedReport/j:Warrant/j:CourtOrderDesignatedSubject/nc:RoleOfPerson/@structures:ref]/wir-ext:PersonRecordIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>war-doc:WarrantAcceptedReport/j:Warrant/j:CourtOrderEnforcementAgency/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>war-doc:WarrantAcceptedReport/j:Warrant/j:CourtOrderRequestEntity/nc:EntityPerson/wir-ext:PersonEmployeeIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>Criminal Tracking Number</t>
-  </si>
-  <si>
     <t>ISO</t>
   </si>
   <si>
@@ -716,24 +360,12 @@
     <t>Livescan Fingerprint ID</t>
   </si>
   <si>
-    <t>NCIC</t>
-  </si>
-  <si>
-    <t>REMOVE</t>
-  </si>
-  <si>
     <t>AgencyRecordIdentification</t>
   </si>
   <si>
     <t>scr:</t>
   </si>
   <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonCitizenshipISO3166Alpha2Code</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonEthnicityCode</t>
-  </si>
-  <si>
     <t>Citizenship Code</t>
   </si>
   <si>
@@ -743,62 +375,206 @@
     <t>Race Code</t>
   </si>
   <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonRaceCode</t>
-  </si>
-  <si>
     <t>Sex Code</t>
   </si>
   <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonSexCode</t>
-  </si>
-  <si>
     <t>SID56567</t>
   </si>
   <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Person/nc:PersonStateIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Vehicle[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonConveyanceAssociation/nc:Conveyance/@structures:ref]/nc:ConveyanceColorPrimaryCode</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Vehicle[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonConveyanceAssociation/nc:Conveyance/@structures:ref]/nc:ConveyanceColorSecondaryCode</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Vehicle[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonConveyanceAssociation/nc:Conveyance/@structures:ref]/j:VehicleMakeCode</t>
-  </si>
-  <si>
-    <t>DIA</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Vehicle[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonConveyanceAssociation/nc:Conveyance/@structures:ref]/j:VehicleModelCode</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/nc:Vehicle[@structures:id=/wir-doc:WarrantIssuedReport/nc:PersonConveyanceAssociation/nc:Conveyance/@structures:ref]/j:VehicleStyleCode</t>
-  </si>
-  <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wir-ext:WarrantAugmentation/wir-ext:CriminalTrackingNumber</t>
-  </si>
-  <si>
     <t>OCA</t>
   </si>
   <si>
     <t>OCA4576</t>
   </si>
   <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/j:CourtOrderEnforcementAgency/wir-ext:AgencyRecordIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
     <t>TCN345665</t>
   </si>
   <si>
-    <t>wir-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wir-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wir-ext:WarrantAugmentation/scr:TransactionControlNumberIdentification/nc:IdentificationID</t>
+    <t>Warrant Modification Request</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Case/nc:CaseDocketID</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Case/nc:ActivityIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonName/nc:PersonGivenName</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonName/nc:PersonMiddleName</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonName/nc:PersonSurName</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonName/nc:PersonNameSuffixText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonName/nc:PersonFullName</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonCitizenshipISO3166Alpha2Code</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonBirthDate/nc:Date</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonEthnicityCode</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonRaceCode</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonEyeColorText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonSexCode</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/j:PersonAugmentation/j:PersonFBIIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonStateIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonSkinToneText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonHairColorText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonHeightMeasure/nc:MeasureValueText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonHeightMeasure/nc:MeasureUnitText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonWeightMeasure/nc:MeasureValueText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonWeightMeasure/nc:MeasureUnitText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonBirthLocation/nc:LocationCategoryText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonPhysicalFeature/intel:PhysicalFeatureCategoryCodeText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/nc:PersonSSNIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/j:PersonAugmentation/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationJurisdiction/j:JurisdictionNCICLISCode</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wm-req-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/nc:LocationStreet/nc:StreetNumberText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wm-req-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/nc:AddressFullText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wm-req-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/nc:LocationCityName</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wm-req-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/nc:LocationStateName</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wm-req-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/nc:LocationPostalCode</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/j:WarrantAppearanceBail/j:BailSetAmount/nc:Amount</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/j:CourtOrderIssuingDate/nc:Date</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/j:CourtOrderIssuingCourt/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/j:CourtOrderEnforcementAgency/j:OrganizationAugmentation/j:OrganizationORIIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Case/j:CaseAugmentation/j:CaseCharge/wm-req-ext:OffenseCodeText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Case/j:CaseAugmentation/j:CaseCharge/wm-req-ext:ChargeCodeText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Case/j:CaseAugmentation/j:CaseCharge/wm-req-ext:OriginalOffenseCodeText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/wm-req-ext:PersonMiscellaneousRecordIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/wm-req-ext:PersonRecordIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/wm-req-ext:PersonAdditionalInformationText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:Person/wm-req-ext:PersonCautionCodeText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/nc:ContactInformation/nc:ContactMailingAddress[@structures:id=/wm-req-doc:WarrantIssuedReport/nc:ContactInformationAssociation/nc:ContactInformation/nc:ContactMailingAddress/@structures:ref]/wm-req-ext:AddressCategoryText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wm-req-ext:WarrantAugmentation/wm-req-ext:ExtraditionIndicator</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wm-req-ext:WarrantAugmentation/wm-req-ext:ExtraditionLimitCodeText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/j:CourtOrderEnforcementAgency/wm-req-ext:AgencyRecordIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/j:CourtOrderRequestEntity/nc:EntityPerson/wm-req-ext:PersonEmployeeIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wm-req-ext:WarrantAugmentation/wm-req-ext:PersonRecordIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wm-req-ext:WarrantAugmentation/wm-req-ext:SubjectPickupRadiusCodeText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wm-req-ext:WarrantAugmentation/wm-req-ext:WarrantBroadcastCodeText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wm-req-ext:WarrantAugmentation/scr:TransactionControlNumberIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>Additional Warrant Information Text</t>
+  </si>
+  <si>
+    <t>Additional information about a warrant.</t>
+  </si>
+  <si>
+    <t>Additional Warrant Information</t>
+  </si>
+  <si>
+    <t>Warrant Entry Category Code Text</t>
+  </si>
+  <si>
+    <t>A type of warrant entry</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wm-req-ext:WarrantAugmentation/wm-req-ext:WarrantAdditionalInformationText</t>
+  </si>
+  <si>
+    <t>wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wm-req-doc:WarrantIssuedReport/j:Warrant[@structures:id=/wm-req-doc:WarrantIssuedReport/j:ActivityWarrantAssociation/j:Warrant/@structures:ref]/wm-req-ext:WarrantAugmentation/wm-req-ext:WarrantAdditionalInformationText</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -879,12 +655,6 @@
       <sz val="11"/>
       <name val="Verdana"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF6600"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1810,21 +1580,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1833,19 +1594,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1866,16 +1618,10 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3107,1146 +2853,877 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="92.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="92.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="13" customFormat="1">
+      <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" s="13" customFormat="1">
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="13" customFormat="1">
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="13" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="13" customFormat="1">
+      <c r="A7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="13" customFormat="1" ht="30">
+      <c r="A8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="13" customFormat="1">
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" s="13" customFormat="1">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="13" customFormat="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="13" customFormat="1">
+      <c r="B12" s="3"/>
+      <c r="C12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="13" customFormat="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="13" customFormat="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="13" customFormat="1">
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="13" customFormat="1">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12">
+        <v>23235</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="13" customFormat="1">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="13" customFormat="1">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="13" customFormat="1">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="13" customFormat="1">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="13" customFormat="1" ht="30">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
+        <v>354786908</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="13" customFormat="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="13" customFormat="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="13" customFormat="1">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="13" customFormat="1">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
+        <v>71</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="13" customFormat="1">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="13" customFormat="1">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
+        <v>165</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="13" customFormat="1">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="13" customFormat="1">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="13" customFormat="1">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="13" customFormat="1">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4">
+        <v>98213455</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="13" customFormat="1" ht="30">
+      <c r="A32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="13" customFormat="1">
+      <c r="A33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="13" customFormat="1">
+      <c r="A34" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="13" customFormat="1">
+      <c r="A35" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="13" customFormat="1" ht="30">
+      <c r="B38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" s="5" customFormat="1" ht="45">
+      <c r="A39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="5" customFormat="1" ht="45">
+      <c r="B40" s="10"/>
+      <c r="C40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4">
+        <v>6407</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="5" customFormat="1">
+      <c r="B41" s="10"/>
+      <c r="C41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="C42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="C43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="C44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="C45" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="13">
+        <v>63412</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="13" customFormat="1">
+      <c r="B46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" s="13" customFormat="1" ht="43" customHeight="1">
+      <c r="C47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="13">
+        <v>5000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="C48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="7">
+        <v>40767</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="C49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="13">
+        <v>659056746</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="A50" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="13" customFormat="1" ht="60">
+      <c r="A51" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="C52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="20" customFormat="1">
-      <c r="B3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" s="20" customFormat="1">
-      <c r="C4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="20" customFormat="1">
-      <c r="C5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="E52" s="13">
+        <v>758075800</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="A53" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="C54" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="A55" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="A56" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="5">
+        <v>500</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="A57" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="20" customFormat="1">
-      <c r="A6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="20" customFormat="1">
-      <c r="A7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="20" customFormat="1">
-      <c r="A8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="20" customFormat="1">
-      <c r="B9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" s="20" customFormat="1">
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="20" customFormat="1">
-      <c r="B11" s="6"/>
-      <c r="C11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="20" customFormat="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="20" customFormat="1">
-      <c r="B13" s="6"/>
-      <c r="C13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="20" customFormat="1">
-      <c r="B14" s="6"/>
-      <c r="C14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
+      <c r="E57" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="B16" s="6"/>
-      <c r="C16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" s="20" customFormat="1" ht="45">
-      <c r="B17" s="6"/>
-      <c r="C17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" s="20" customFormat="1" ht="45">
-      <c r="B18" s="6"/>
-      <c r="C18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" s="20" customFormat="1" ht="45">
-      <c r="B19" s="6"/>
-      <c r="C19" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" s="20" customFormat="1">
-      <c r="B20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" s="20" customFormat="1">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18">
-        <v>23235</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" s="20" customFormat="1">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" s="20" customFormat="1">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="F57" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="A58" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" s="20" customFormat="1">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" s="20" customFormat="1">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" s="20" customFormat="1">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7">
-        <v>354786908</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" s="20" customFormat="1">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" s="20" customFormat="1">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" s="20" customFormat="1">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" s="20" customFormat="1">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7">
-        <v>71</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" s="20" customFormat="1">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" s="20" customFormat="1">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7">
-        <v>165</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="20" customFormat="1">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="E58" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="20" customFormat="1">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="7" t="s">
+    <row r="59" spans="1:6" s="13" customFormat="1" ht="45">
+      <c r="A59" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="20" customFormat="1">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="20" customFormat="1">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7">
-        <v>98213455</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E59" s="14" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="20" customFormat="1" ht="30">
-      <c r="A37" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="7" t="s">
+      <c r="F59" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="13" customFormat="1" ht="75">
+      <c r="A60" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="14" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="20" customFormat="1">
-      <c r="A38" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="D60" s="14" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="20" customFormat="1">
-      <c r="A39" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="E60" s="14" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="20" customFormat="1">
-      <c r="A40" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="B41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" s="6" t="s">
+      <c r="F60" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="20" customFormat="1">
-      <c r="B43" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C44" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C45" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C46" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C47" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C48" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C49" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C50" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C51" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="20">
-        <v>2012</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="A53" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="13">
-        <v>41174</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="A54" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="A55" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="20" customFormat="1" ht="30">
-      <c r="B56" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-    </row>
-    <row r="57" spans="1:6" s="9" customFormat="1" ht="45">
-      <c r="A57" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="9" customFormat="1" ht="45">
-      <c r="B58" s="16"/>
-      <c r="C58" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7">
-        <v>6407</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="9" customFormat="1">
-      <c r="B59" s="16"/>
-      <c r="C59" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C60" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C61" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C62" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C63" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F63" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C64" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="20">
-        <v>119</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C65" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="20">
-        <v>63412</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="20" customFormat="1">
-      <c r="B66" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-    </row>
-    <row r="67" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C67" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="13">
-        <v>41133</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="20" customFormat="1" ht="43" customHeight="1">
-      <c r="C68" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="20">
-        <v>5000</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C69" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E69" s="13">
-        <v>40767</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C70" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E70" s="20">
-        <v>659056746</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C71" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="A72" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E72" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="20" customFormat="1" ht="60">
-      <c r="A73" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C74" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" s="20">
-        <v>758075800</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="A75" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="C76" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="A77" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F77" s="20" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="A78" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F78" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="A79" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E79" s="9">
-        <v>500</v>
-      </c>
-      <c r="F79" s="20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="A80" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F80" s="20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="20" customFormat="1" ht="45">
-      <c r="A81" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="20" customFormat="1"/>
-    <row r="83" spans="1:6" s="20" customFormat="1"/>
-    <row r="84" spans="1:6" s="20" customFormat="1">
-      <c r="B84" s="23"/>
-    </row>
-    <row r="85" spans="1:6" s="20" customFormat="1"/>
-    <row r="86" spans="1:6" s="20" customFormat="1"/>
-    <row r="286" hidden="1"/>
-    <row r="287" hidden="1"/>
-    <row r="288" hidden="1"/>
-    <row r="289" hidden="1"/>
-    <row r="290" hidden="1"/>
-    <row r="291" hidden="1"/>
-    <row r="292" hidden="1"/>
-    <row r="293" hidden="1"/>
-    <row r="294" hidden="1"/>
-    <row r="295" hidden="1"/>
-    <row r="296" hidden="1"/>
-    <row r="297" hidden="1"/>
-    <row r="298" hidden="1"/>
-    <row r="299" hidden="1"/>
+    <row r="61" spans="1:6" s="13" customFormat="1">
+      <c r="B61" s="15"/>
+    </row>
+    <row r="62" spans="1:6" s="13" customFormat="1"/>
+    <row r="63" spans="1:6" s="13" customFormat="1"/>
+    <row r="263" hidden="1"/>
+    <row r="264" hidden="1"/>
+    <row r="265" hidden="1"/>
+    <row r="266" hidden="1"/>
+    <row r="267" hidden="1"/>
+    <row r="268" hidden="1"/>
+    <row r="269" hidden="1"/>
+    <row r="270" hidden="1"/>
+    <row r="271" hidden="1"/>
+    <row r="272" hidden="1"/>
+    <row r="273" hidden="1"/>
+    <row r="274" hidden="1"/>
+    <row r="275" hidden="1"/>
+    <row r="276" hidden="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
@@ -4260,488 +3737,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G86"/>
-  <sheetViews>
-    <sheetView topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="92.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="20" customFormat="1" ht="45">
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="45">
-      <c r="B5" s="6"/>
-      <c r="C5" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="20" customFormat="1" ht="45">
-      <c r="B6" s="6"/>
-      <c r="C6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="20" customFormat="1" ht="45">
-      <c r="B7" s="6"/>
-      <c r="C7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" ht="45">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="18">
-        <v>23235</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" ht="45">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" s="20" customFormat="1" ht="45">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" s="20" customFormat="1" ht="45">
-      <c r="B11" s="7"/>
-      <c r="C11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" s="20" customFormat="1" ht="45">
-      <c r="C13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="20">
-        <v>758075800</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="20" customFormat="1">
-      <c r="C14" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="30">
-      <c r="A15" s="20"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="20" customFormat="1"/>
-    <row r="17" spans="1:1" s="20" customFormat="1"/>
-    <row r="18" spans="1:1" s="20" customFormat="1"/>
-    <row r="19" spans="1:1" s="20" customFormat="1"/>
-    <row r="20" spans="1:1" s="20" customFormat="1"/>
-    <row r="21" spans="1:1" s="20" customFormat="1"/>
-    <row r="22" spans="1:1" s="20" customFormat="1"/>
-    <row r="23" spans="1:1">
-      <c r="A23" s="20"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="20"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="20"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="20"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="20"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="20"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="20"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="20"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="20"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="20"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="20"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="20"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="20"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="20"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="20"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="20"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="20"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="20"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="20"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="20"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="20"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="20"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="20"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="20"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="20"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="20"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="9"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="9"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="20"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="20"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="20"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="20"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="20"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="20"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="20"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="20"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="20"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="20"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="20"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="20"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="20"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="20"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="20"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="20"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="20"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="20"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="20"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="20"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="20"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>